--- a/arduino_leonardo_device_list.xlsx
+++ b/arduino_leonardo_device_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://highcanflyparapente-my.sharepoint.com/personal/ronan_le_meillat_highcanfly_club/Documents/Personnel/IAS/ClavierV1.2/Arduino-Leonardo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{5391D3E6-7054-0444-9BE6-018406934D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{8C0179DB-57A0-9044-A90A-6888AFD19328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,9 +510,6 @@
     <t>PPPC081LFBN-RC</t>
   </si>
   <si>
-    <t>Sullis</t>
-  </si>
-  <si>
     <t>S7041-ND</t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>CUI</t>
+  </si>
+  <si>
+    <t>RN1</t>
   </si>
 </sst>
 </file>
@@ -989,17 +989,17 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
@@ -1026,7 +1026,7 @@
         <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>120</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
@@ -1075,7 +1075,7 @@
         <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -1127,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
@@ -1153,7 +1153,7 @@
         <v>118</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>20</v>
@@ -1205,7 +1205,7 @@
         <v>139</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>27</v>
@@ -1231,7 +1231,7 @@
         <v>121</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>30</v>
@@ -1257,7 +1257,7 @@
         <v>122</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>33</v>
@@ -1283,7 +1283,7 @@
         <v>123</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>37</v>
@@ -1303,13 +1303,13 @@
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>40</v>
@@ -1459,7 +1459,7 @@
         <v>129</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>64</v>
@@ -1511,7 +1511,7 @@
         <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>71</v>
@@ -1537,7 +1537,7 @@
         <v>132</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>75</v>
@@ -1563,7 +1563,7 @@
         <v>77</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>78</v>
@@ -1589,7 +1589,7 @@
         <v>133</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>82</v>
@@ -1618,7 +1618,7 @@
         <v>148</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>87</v>
@@ -1644,7 +1644,7 @@
         <v>89</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>91</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>101</v>
@@ -1733,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>104</v>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>108</v>
@@ -1776,10 +1776,10 @@
         <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>112</v>
@@ -1802,16 +1802,16 @@
         <v>150</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>149</v>
